--- a/Technology/Salesforce.xlsx
+++ b/Technology/Salesforce.xlsx
@@ -8,26 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5EBE9EF-7462-CE4D-97D0-0D5BE790963A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C719A5D-3EDC-054C-8285-99C4DADB19AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23560" yWindow="500" windowWidth="27620" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="700" yWindow="500" windowWidth="27620" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$3:$W$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$W$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$W$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$W$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$B$106:$W$106</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$19:$W$19</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="161">
   <si>
     <t>ROIC.AI | CRM</t>
   </si>
@@ -526,6 +513,9 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
   </si>
 </sst>
 </file>
@@ -868,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -929,18 +919,6 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -978,12 +956,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1005,6 +977,27 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2537,10 +2530,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB92" sqref="AB92"/>
+      <selection pane="bottomRight" activeCell="Z73" sqref="Z73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3954,7 +3947,7 @@
         <v>32.780617073632406</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
@@ -4025,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -4095,8 +4088,11 @@
       <c r="W18" s="1">
         <v>3298000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="AC18" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
@@ -4166,8 +4162,12 @@
       <c r="W19" s="10">
         <v>4830000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC19" s="67">
+        <f>W40-W56-W61</f>
+        <v>-3444000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>102</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>-0.10671351951174401</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>0.18229999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>548000000</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>2.07E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>984000000</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>20</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>1532000000</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>5.7799999999999997E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>22</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>88000000</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>23</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>1444000000</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>103</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>-0.64538310412573674</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>24</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>5.45E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>25</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>26</v>
       </c>
@@ -8789,10 +8789,10 @@
       <c r="W83" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AD83" s="32" t="s">
+      <c r="AD83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="AE83" s="33"/>
+      <c r="AE83" s="62"/>
     </row>
     <row r="84" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -8864,10 +8864,10 @@
       <c r="W84" s="1">
         <v>507000000</v>
       </c>
-      <c r="AD84" s="34" t="s">
+      <c r="AD84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="AE84" s="35"/>
+      <c r="AE84" s="64"/>
     </row>
     <row r="85" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9173,10 +9173,10 @@
       <c r="W88" s="1">
         <v>0</v>
       </c>
-      <c r="AD88" s="36" t="s">
+      <c r="AD88" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="AE88" s="37">
+      <c r="AE88" s="33">
         <f>AE85/(AE86+AE87)</f>
         <v>0</v>
       </c>
@@ -9429,10 +9429,10 @@
       <c r="W91" s="1">
         <v>-7392000000</v>
       </c>
-      <c r="AD91" s="36" t="s">
+      <c r="AD91" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="AE91" s="37">
+      <c r="AE91" s="33">
         <f>AE89/AE90</f>
         <v>5.7441253263707574E-2</v>
       </c>
@@ -9507,10 +9507,10 @@
       <c r="W92" s="1">
         <v>8449000000</v>
       </c>
-      <c r="AD92" s="38" t="s">
+      <c r="AD92" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="AE92" s="39">
+      <c r="AE92" s="35">
         <f>AE88*(1-AE91)</f>
         <v>0</v>
       </c>
@@ -9585,10 +9585,10 @@
       <c r="W93" s="1">
         <v>-717000000</v>
       </c>
-      <c r="AD93" s="34" t="s">
+      <c r="AD93" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="AE93" s="35"/>
+      <c r="AE93" s="64"/>
     </row>
     <row r="94" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -9663,7 +9663,7 @@
       <c r="AD94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AE94" s="40">
+      <c r="AE94" s="36">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -9737,10 +9737,10 @@
       <c r="W95" s="1">
         <v>-1357000000</v>
       </c>
-      <c r="AD95" s="41" t="s">
+      <c r="AD95" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="AE95" s="42">
+      <c r="AE95" s="38">
         <v>1.19</v>
       </c>
     </row>
@@ -9817,7 +9817,7 @@
       <c r="AD96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AE96" s="40">
+      <c r="AE96" s="36">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -9891,10 +9891,10 @@
       <c r="W97" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AD97" s="38" t="s">
+      <c r="AD97" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="AE97" s="39">
+      <c r="AE97" s="35">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
         <v>9.2179499999999998E-2</v>
       </c>
@@ -9969,10 +9969,10 @@
       <c r="W98" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AD98" s="34" t="s">
+      <c r="AD98" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AE98" s="35"/>
+      <c r="AE98" s="64"/>
     </row>
     <row r="99" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10122,10 +10122,10 @@
       <c r="W100" s="10">
         <v>7838000000</v>
       </c>
-      <c r="AD100" s="36" t="s">
+      <c r="AD100" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="AE100" s="37">
+      <c r="AE100" s="33">
         <f>AE99/AE103</f>
         <v>7.4700391641421018E-2</v>
       </c>
@@ -10200,10 +10200,10 @@
       <c r="W101" s="1">
         <v>-33000000</v>
       </c>
-      <c r="AD101" s="41" t="s">
+      <c r="AD101" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="AE101" s="43">
+      <c r="AE101" s="39">
         <v>173180000000</v>
       </c>
     </row>
@@ -10277,10 +10277,10 @@
       <c r="W102" s="10">
         <v>-731000000</v>
       </c>
-      <c r="AD102" s="36" t="s">
+      <c r="AD102" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="AE102" s="37">
+      <c r="AE102" s="33">
         <f>AE101/AE103</f>
         <v>0.92529960835857894</v>
       </c>
@@ -10355,10 +10355,10 @@
       <c r="W103" s="1">
         <v>6195000000</v>
       </c>
-      <c r="AD103" s="38" t="s">
+      <c r="AD103" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="AE103" s="44">
+      <c r="AE103" s="40">
         <f>AE99+AE101</f>
         <v>187161000000</v>
       </c>
@@ -10433,10 +10433,10 @@
       <c r="W104" s="11">
         <v>5464000000</v>
       </c>
-      <c r="AD104" s="34" t="s">
+      <c r="AD104" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="AE104" s="35"/>
+      <c r="AE104" s="64"/>
     </row>
     <row r="105" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -10611,33 +10611,33 @@
       <c r="W106" s="1">
         <v>5283000000</v>
       </c>
-      <c r="X106" s="45">
+      <c r="X106" s="41">
         <f>W106*(1+$AE$106)</f>
         <v>6129305316.8925457</v>
       </c>
-      <c r="Y106" s="45">
+      <c r="Y106" s="41">
         <f t="shared" ref="Y106:AB106" si="44">X106*(1+$AE$106)</f>
         <v>7111183734.1827049</v>
       </c>
-      <c r="Z106" s="45">
+      <c r="Z106" s="41">
         <f t="shared" si="44"/>
         <v>8250353259.7626047</v>
       </c>
-      <c r="AA106" s="45">
+      <c r="AA106" s="41">
         <f t="shared" si="44"/>
         <v>9572010997.7862339</v>
       </c>
-      <c r="AB106" s="45">
+      <c r="AB106" s="41">
         <f t="shared" si="44"/>
         <v>11105390479.289246</v>
       </c>
-      <c r="AC106" s="46" t="s">
+      <c r="AC106" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="AD106" s="47" t="s">
+      <c r="AD106" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="AE106" s="48">
+      <c r="AE106" s="44">
         <f>(SUM(X4:AB4)/5)</f>
         <v>0.16019407853351231</v>
       </c>
@@ -10666,150 +10666,150 @@
       <c r="U107" s="13"/>
       <c r="V107" s="13"/>
       <c r="W107" s="13"/>
-      <c r="X107" s="46"/>
-      <c r="Y107" s="46"/>
-      <c r="Z107" s="46"/>
-      <c r="AA107" s="46"/>
-      <c r="AB107" s="49">
+      <c r="X107" s="42"/>
+      <c r="Y107" s="42"/>
+      <c r="Z107" s="42"/>
+      <c r="AA107" s="42"/>
+      <c r="AB107" s="45">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
         <v>188793086010.80154</v>
       </c>
-      <c r="AC107" s="50" t="s">
+      <c r="AC107" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="AD107" s="51" t="s">
+      <c r="AD107" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="AE107" s="52">
+      <c r="AE107" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X108" s="49">
+      <c r="X108" s="45">
         <f t="shared" ref="X108:Z108" si="45">X107+X106</f>
         <v>6129305316.8925457</v>
       </c>
-      <c r="Y108" s="49">
+      <c r="Y108" s="45">
         <f t="shared" si="45"/>
         <v>7111183734.1827049</v>
       </c>
-      <c r="Z108" s="49">
+      <c r="Z108" s="45">
         <f t="shared" si="45"/>
         <v>8250353259.7626047</v>
       </c>
-      <c r="AA108" s="49">
+      <c r="AA108" s="45">
         <f>AA107+AA106</f>
         <v>9572010997.7862339</v>
       </c>
-      <c r="AB108" s="49">
+      <c r="AB108" s="45">
         <f>AB107+AB106</f>
         <v>199898476490.09079</v>
       </c>
-      <c r="AC108" s="50" t="s">
+      <c r="AC108" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="AD108" s="53" t="s">
+      <c r="AD108" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="AE108" s="54">
+      <c r="AE108" s="50">
         <f>AE105</f>
         <v>8.529365524868962E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X109" s="55" t="s">
+      <c r="X109" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="Y109" s="56"/>
+      <c r="Y109" s="66"/>
     </row>
     <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X110" s="57" t="s">
+      <c r="X110" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="Y110" s="58">
+      <c r="Y110" s="52">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
         <v>157800245899.53</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X111" s="57" t="s">
+      <c r="X111" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="Y111" s="58">
+      <c r="Y111" s="52">
         <f>W40</f>
         <v>10537000000</v>
       </c>
     </row>
     <row r="112" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X112" s="57" t="s">
+      <c r="X112" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="Y112" s="58">
+      <c r="Y112" s="52">
         <f>AE99</f>
         <v>13981000000</v>
       </c>
     </row>
     <row r="113" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X113" s="57" t="s">
+      <c r="X113" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="Y113" s="58">
+      <c r="Y113" s="52">
         <f>Y110+Y111-Y112</f>
         <v>154356245899.53</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X114" s="57" t="s">
+      <c r="X114" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="Y114" s="59">
+      <c r="Y114" s="53">
         <f>W34*(1+(5*AC16))</f>
         <v>1307403073.446146</v>
       </c>
     </row>
     <row r="115" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X115" s="60" t="s">
+      <c r="X115" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="Y115" s="61">
+      <c r="Y115" s="55">
         <f>Y113/Y114</f>
         <v>118.06324234244518</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X116" s="62" t="s">
+      <c r="X116" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="Y116" s="63">
+      <c r="Y116" s="57">
         <v>173.18</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X117" s="64" t="s">
+      <c r="X117" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="Y117" s="65">
+      <c r="Y117" s="59">
         <f>Y115/Y116-1</f>
         <v>-0.31826283437784286</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X118" s="64" t="s">
+      <c r="X118" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="Y118" s="66" t="str">
+      <c r="Y118" s="60" t="str">
         <f>IF(Y115&gt;Y116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="X109:Y109"/>
     <mergeCell ref="AD83:AE83"/>
     <mergeCell ref="AD84:AE84"/>
     <mergeCell ref="AD93:AE93"/>
     <mergeCell ref="AD98:AE98"/>
     <mergeCell ref="AD104:AE104"/>
-    <mergeCell ref="X109:Y109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/CRM" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
